--- a/python_xls/Students.xlsx
+++ b/python_xls/Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_study\python_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27C9FF-04C0-495D-957F-314D7694AC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF687477-3BE7-4C13-A667-5A94C840CCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="885" windowWidth="20370" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
